--- a/Assets/Configs/GameSkills.xlsx
+++ b/Assets/Configs/GameSkills.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\minigame\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72301411-1DFB-4308-8989-AFEAE5C01827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C78D552-0A7E-4784-B4C7-F7FA80FFE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="9970"/>
+    <workbookView xWindow="9200" yWindow="3540" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameSkills" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>SkillID</t>
   </si>
@@ -73,12 +73,18 @@
   </si>
   <si>
     <t>放置一座防御塔</t>
+  </si>
+  <si>
+    <t>生成子弹</t>
+  </si>
+  <si>
+    <t>生成子弹类型1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1023,10 +1029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1160,6 +1168,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7001</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
